--- a/Bases_de_Dados/FootyStats/Austria Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Austria Bundesliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP97"/>
+  <dimension ref="A1:BP100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.88</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.63</v>
@@ -3099,7 +3099,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR12" t="n">
         <v>1.78</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR14" t="n">
         <v>0.73</v>
@@ -3750,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.88</v>
@@ -3968,7 +3968,7 @@
         <v>3</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ16" t="n">
         <v>2.63</v>
@@ -4189,7 +4189,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR17" t="n">
         <v>1.75</v>
@@ -4843,7 +4843,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR20" t="n">
         <v>2.7</v>
@@ -6366,7 +6366,7 @@
         <v>3</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ27" t="n">
         <v>2.63</v>
@@ -6587,7 +6587,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR28" t="n">
         <v>1.51</v>
@@ -6802,7 +6802,7 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.75</v>
@@ -7459,7 +7459,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR32" t="n">
         <v>1.35</v>
@@ -7895,7 +7895,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR34" t="n">
         <v>1.52</v>
@@ -8110,7 +8110,7 @@
         <v>2</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.67</v>
@@ -8546,7 +8546,7 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.57</v>
@@ -9421,7 +9421,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR41" t="n">
         <v>1.43</v>
@@ -9636,7 +9636,7 @@
         <v>3</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.75</v>
@@ -9854,7 +9854,7 @@
         <v>0.33</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.63</v>
@@ -10075,7 +10075,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR44" t="n">
         <v>1.12</v>
@@ -10293,7 +10293,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR45" t="n">
         <v>1.4</v>
@@ -11380,10 +11380,10 @@
         <v>0.67</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR50" t="n">
         <v>1.25</v>
@@ -11598,7 +11598,7 @@
         <v>1.67</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.57</v>
@@ -12470,7 +12470,7 @@
         <v>1.67</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.67</v>
@@ -13345,7 +13345,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR59" t="n">
         <v>2.05</v>
@@ -13563,7 +13563,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR60" t="n">
         <v>1.72</v>
@@ -14432,7 +14432,7 @@
         <v>2</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.75</v>
@@ -15089,7 +15089,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR67" t="n">
         <v>1.27</v>
@@ -15304,7 +15304,7 @@
         <v>2</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.63</v>
@@ -15522,10 +15522,10 @@
         <v>1</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR69" t="n">
         <v>1.2</v>
@@ -15961,7 +15961,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR71" t="n">
         <v>1.28</v>
@@ -16394,7 +16394,7 @@
         <v>0.67</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.5</v>
@@ -17051,7 +17051,7 @@
         <v>2</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR76" t="n">
         <v>1.58</v>
@@ -18138,7 +18138,7 @@
         <v>1.5</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.5</v>
@@ -18359,7 +18359,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR82" t="n">
         <v>1.82</v>
@@ -18577,7 +18577,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR83" t="n">
         <v>1.98</v>
@@ -19010,7 +19010,7 @@
         <v>0.57</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ85" t="n">
         <v>0.5</v>
@@ -19228,7 +19228,7 @@
         <v>1.83</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.57</v>
@@ -19449,7 +19449,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR87" t="n">
         <v>1.77</v>
@@ -19882,7 +19882,7 @@
         <v>2.57</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ89" t="n">
         <v>2.63</v>
@@ -20321,7 +20321,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR91" t="n">
         <v>1.9</v>
@@ -20972,10 +20972,10 @@
         <v>1.29</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR94" t="n">
         <v>1.12</v>
@@ -21411,7 +21411,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR96" t="n">
         <v>1.43</v>
@@ -21705,6 +21705,660 @@
       </c>
       <c r="BP97" t="n">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>8206663</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>46004.54166666666</v>
+      </c>
+      <c r="F98" t="n">
+        <v>17</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Ried</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Rheindorf Altach</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="n">
+        <v>3</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>3</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>['43', '61', '79']</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R98" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S98" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U98" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V98" t="n">
+        <v>3</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X98" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BL98" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BM98" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BN98" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO98" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BP98" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>8206671</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>46004.54166666666</v>
+      </c>
+      <c r="F99" t="n">
+        <v>17</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Wattens</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>2</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="n">
+        <v>3</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>['64', '70']</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S99" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="T99" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U99" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V99" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X99" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BL99" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BM99" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BN99" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO99" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP99" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>8206701</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>46004.54166666666</v>
+      </c>
+      <c r="F100" t="n">
+        <v>17</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Grazer AK</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>LASK Linz</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2</v>
+      </c>
+      <c r="K100" t="n">
+        <v>3</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="n">
+        <v>2</v>
+      </c>
+      <c r="N100" t="n">
+        <v>3</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>['4', '25']</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="R100" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S100" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="T100" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U100" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V100" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X100" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BL100" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BM100" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN100" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO100" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP100" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Austria Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Austria Bundesliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP100"/>
+  <dimension ref="A1:BP102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ8" t="n">
         <v>1.67</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.63</v>
@@ -2881,7 +2881,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.44</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.5</v>
@@ -5279,7 +5279,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR22" t="n">
         <v>1.46</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.5</v>
@@ -6805,7 +6805,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR29" t="n">
         <v>1.47</v>
@@ -7023,7 +7023,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR30" t="n">
         <v>1.81</v>
@@ -7238,7 +7238,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.63</v>
@@ -8549,7 +8549,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR37" t="n">
         <v>1.06</v>
@@ -8764,7 +8764,7 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ38" t="n">
         <v>2.63</v>
@@ -9639,7 +9639,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR42" t="n">
         <v>1.09</v>
@@ -10072,7 +10072,7 @@
         <v>1.33</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.89</v>
@@ -11601,7 +11601,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR51" t="n">
         <v>1.11</v>
@@ -12252,10 +12252,10 @@
         <v>2.5</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR54" t="n">
         <v>2.2</v>
@@ -13124,7 +13124,7 @@
         <v>3</v>
       </c>
       <c r="AP58" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ58" t="n">
         <v>2.63</v>
@@ -13342,7 +13342,7 @@
         <v>1</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.89</v>
@@ -14435,7 +14435,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR64" t="n">
         <v>1.4</v>
@@ -14653,7 +14653,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR65" t="n">
         <v>1.8</v>
@@ -15086,7 +15086,7 @@
         <v>0.6</v>
       </c>
       <c r="AP67" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.44</v>
@@ -15740,7 +15740,7 @@
         <v>1.8</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.5</v>
@@ -17269,7 +17269,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR77" t="n">
         <v>1.42</v>
@@ -17702,7 +17702,7 @@
         <v>1.67</v>
       </c>
       <c r="AP79" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.63</v>
@@ -17923,7 +17923,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR80" t="n">
         <v>1.44</v>
@@ -18574,7 +18574,7 @@
         <v>0.6</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.11</v>
@@ -19231,7 +19231,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR86" t="n">
         <v>1.37</v>
@@ -20103,7 +20103,7 @@
         <v>2</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR90" t="n">
         <v>1.62</v>
@@ -20754,7 +20754,7 @@
         <v>1.71</v>
       </c>
       <c r="AP93" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.88</v>
@@ -22359,6 +22359,442 @@
       </c>
       <c r="BP100" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>8206662</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>46005.4375</v>
+      </c>
+      <c r="F101" t="n">
+        <v>17</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Wolfsberger AC</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" t="n">
+        <v>2</v>
+      </c>
+      <c r="L101" t="n">
+        <v>2</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="n">
+        <v>3</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>['7', '86']</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="R101" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>4</v>
+      </c>
+      <c r="T101" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="U101" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X101" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BL101" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM101" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BN101" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO101" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP101" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>8206727</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>46005.4375</v>
+      </c>
+      <c r="F102" t="n">
+        <v>17</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Blau-Weiß Linz</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Rapid Wien</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
+      <c r="K102" t="n">
+        <v>2</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="n">
+        <v>2</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2</v>
+      </c>
+      <c r="S102" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U102" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V102" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X102" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL102" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM102" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN102" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO102" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP102" t="n">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Austria Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Austria Bundesliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP102"/>
+  <dimension ref="A1:BP103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>2</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.38</v>
@@ -3971,7 +3971,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AR16" t="n">
         <v>1.06</v>
@@ -5712,7 +5712,7 @@
         <v>1.5</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.67</v>
@@ -6369,7 +6369,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AR27" t="n">
         <v>1.09</v>
@@ -6584,7 +6584,7 @@
         <v>2</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.89</v>
@@ -8767,7 +8767,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ38" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AR38" t="n">
         <v>2.39</v>
@@ -8982,7 +8982,7 @@
         <v>2</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.5</v>
@@ -11162,7 +11162,7 @@
         <v>0.25</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.5</v>
@@ -12037,7 +12037,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ53" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AR53" t="n">
         <v>1.51</v>
@@ -13127,7 +13127,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ58" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AR58" t="n">
         <v>1.09</v>
@@ -14868,7 +14868,7 @@
         <v>1.75</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.88</v>
@@ -16179,7 +16179,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ72" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AR72" t="n">
         <v>1.64</v>
@@ -16830,7 +16830,7 @@
         <v>0.4</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ75" t="n">
         <v>0.63</v>
@@ -19446,7 +19446,7 @@
         <v>1</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.11</v>
@@ -19885,7 +19885,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ89" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AR89" t="n">
         <v>1.13</v>
@@ -22795,6 +22795,224 @@
       </c>
       <c r="BP102" t="n">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>8206668</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>46005.54166666666</v>
+      </c>
+      <c r="F103" t="n">
+        <v>17</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Austria Wien</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Sturm Graz</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>2</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" t="n">
+        <v>3</v>
+      </c>
+      <c r="L103" t="n">
+        <v>3</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="n">
+        <v>4</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>['19', '37', '90+9']</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>3</v>
+      </c>
+      <c r="R103" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S103" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U103" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V103" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X103" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BL103" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BM103" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BN103" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO103" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP103" t="n">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Austria Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Austria Bundesliga_20252026.xlsx
@@ -20452,7 +20452,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>['32']</t>
+          <t>['31']</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">

--- a/Bases_de_Dados/FootyStats/Austria Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Austria Bundesliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP103"/>
+  <dimension ref="A1:BP109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ2" t="n">
         <v>2.33</v>
@@ -1137,7 +1137,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.89</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.67</v>
@@ -3535,7 +3535,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR14" t="n">
         <v>0.73</v>
@@ -4186,7 +4186,7 @@
         <v>3</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.89</v>
@@ -4404,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR18" t="n">
         <v>1.14</v>
@@ -4622,10 +4622,10 @@
         <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR19" t="n">
         <v>1.12</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.44</v>
@@ -5061,7 +5061,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR21" t="n">
         <v>0.6899999999999999</v>
@@ -5276,7 +5276,7 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.67</v>
@@ -5494,10 +5494,10 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR23" t="n">
         <v>1.58</v>
@@ -5715,7 +5715,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR24" t="n">
         <v>1.38</v>
@@ -5930,10 +5930,10 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR25" t="n">
         <v>2.39</v>
@@ -6148,10 +6148,10 @@
         <v>1.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR26" t="n">
         <v>1.28</v>
@@ -7241,7 +7241,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR31" t="n">
         <v>0.98</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.44</v>
@@ -7674,7 +7674,7 @@
         <v>2</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.88</v>
@@ -7892,10 +7892,10 @@
         <v>1</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR34" t="n">
         <v>1.52</v>
@@ -8113,7 +8113,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR35" t="n">
         <v>1.4</v>
@@ -8328,10 +8328,10 @@
         <v>0.5</v>
       </c>
       <c r="AP36" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR36" t="n">
         <v>2.24</v>
@@ -8764,7 +8764,7 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ38" t="n">
         <v>2.33</v>
@@ -8985,7 +8985,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR39" t="n">
         <v>1.47</v>
@@ -9200,10 +9200,10 @@
         <v>0.33</v>
       </c>
       <c r="AP40" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR40" t="n">
         <v>1.5</v>
@@ -9418,10 +9418,10 @@
         <v>0.5</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR41" t="n">
         <v>1.43</v>
@@ -9857,7 +9857,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR43" t="n">
         <v>1.26</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.44</v>
@@ -10508,10 +10508,10 @@
         <v>2.25</v>
       </c>
       <c r="AP46" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR46" t="n">
         <v>1.82</v>
@@ -10944,10 +10944,10 @@
         <v>1.33</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR48" t="n">
         <v>1.56</v>
@@ -11165,7 +11165,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR49" t="n">
         <v>1.69</v>
@@ -11383,7 +11383,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR50" t="n">
         <v>1.25</v>
@@ -11816,10 +11816,10 @@
         <v>1.8</v>
       </c>
       <c r="AP52" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR52" t="n">
         <v>1.46</v>
@@ -12034,7 +12034,7 @@
         <v>3</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ53" t="n">
         <v>2.33</v>
@@ -12252,7 +12252,7 @@
         <v>2.5</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.67</v>
@@ -12473,7 +12473,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR55" t="n">
         <v>1.14</v>
@@ -12688,10 +12688,10 @@
         <v>1.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR56" t="n">
         <v>1.39</v>
@@ -12909,7 +12909,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR57" t="n">
         <v>1.55</v>
@@ -13342,7 +13342,7 @@
         <v>1</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.89</v>
@@ -13560,7 +13560,7 @@
         <v>0</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.44</v>
@@ -13778,10 +13778,10 @@
         <v>1.57</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR61" t="n">
         <v>1.39</v>
@@ -13996,10 +13996,10 @@
         <v>0.5</v>
       </c>
       <c r="AP62" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR62" t="n">
         <v>1.64</v>
@@ -14217,7 +14217,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR63" t="n">
         <v>1.46</v>
@@ -14650,7 +14650,7 @@
         <v>2</v>
       </c>
       <c r="AP65" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.38</v>
@@ -15307,7 +15307,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR68" t="n">
         <v>1.19</v>
@@ -15740,10 +15740,10 @@
         <v>1.8</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR70" t="n">
         <v>1.9</v>
@@ -15958,10 +15958,10 @@
         <v>0.5</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR71" t="n">
         <v>1.28</v>
@@ -16176,7 +16176,7 @@
         <v>3</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ72" t="n">
         <v>2.33</v>
@@ -16397,7 +16397,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR73" t="n">
         <v>1.4</v>
@@ -16612,10 +16612,10 @@
         <v>1.5</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR74" t="n">
         <v>1.23</v>
@@ -16833,7 +16833,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR75" t="n">
         <v>1.77</v>
@@ -17048,7 +17048,7 @@
         <v>0.83</v>
       </c>
       <c r="AP76" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ76" t="n">
         <v>0.89</v>
@@ -17484,7 +17484,7 @@
         <v>2</v>
       </c>
       <c r="AP78" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.88</v>
@@ -17705,7 +17705,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR79" t="n">
         <v>1.24</v>
@@ -17920,7 +17920,7 @@
         <v>2.2</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.38</v>
@@ -18141,7 +18141,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR81" t="n">
         <v>1.13</v>
@@ -18356,7 +18356,7 @@
         <v>1</v>
       </c>
       <c r="AP82" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.44</v>
@@ -18574,10 +18574,10 @@
         <v>0.6</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR83" t="n">
         <v>1.98</v>
@@ -18792,10 +18792,10 @@
         <v>0.33</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ84" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR84" t="n">
         <v>1.56</v>
@@ -19013,7 +19013,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR85" t="n">
         <v>1.22</v>
@@ -19449,7 +19449,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR87" t="n">
         <v>1.77</v>
@@ -19664,7 +19664,7 @@
         <v>1.83</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.88</v>
@@ -20100,7 +20100,7 @@
         <v>2</v>
       </c>
       <c r="AP90" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.67</v>
@@ -20318,10 +20318,10 @@
         <v>1</v>
       </c>
       <c r="AP91" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR91" t="n">
         <v>1.9</v>
@@ -20536,10 +20536,10 @@
         <v>1.29</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR92" t="n">
         <v>1.5</v>
@@ -21190,10 +21190,10 @@
         <v>1.86</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR95" t="n">
         <v>1.41</v>
@@ -21626,10 +21626,10 @@
         <v>0.71</v>
       </c>
       <c r="AP97" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR97" t="n">
         <v>1.76</v>
@@ -22065,7 +22065,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR99" t="n">
         <v>1.12</v>
@@ -22498,7 +22498,7 @@
         <v>1.57</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.38</v>
@@ -23013,6 +23013,1314 @@
       </c>
       <c r="BP103" t="n">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>8206672</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>46059.6875</v>
+      </c>
+      <c r="F104" t="n">
+        <v>18</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Austria Wien</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2</v>
+      </c>
+      <c r="K104" t="n">
+        <v>2</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>2</v>
+      </c>
+      <c r="N104" t="n">
+        <v>2</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>['21', '24']</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R104" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S104" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T104" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U104" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V104" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X104" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL104" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BM104" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN104" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BO104" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BP104" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>8206728</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>46060.54166666666</v>
+      </c>
+      <c r="F105" t="n">
+        <v>18</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>LASK Linz</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Wattens</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R105" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S105" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T105" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U105" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="V105" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X105" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BL105" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM105" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BN105" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO105" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BP105" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>8206673</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>46060.54166666666</v>
+      </c>
+      <c r="F106" t="n">
+        <v>18</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Rapid Wien</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="n">
+        <v>2</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R106" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S106" t="n">
+        <v>4</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U106" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="V106" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X106" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BL106" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BM106" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN106" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO106" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP106" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>8206723</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>46061.4375</v>
+      </c>
+      <c r="F107" t="n">
+        <v>18</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Rheindorf Altach</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Blau-Weiß Linz</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R107" t="n">
+        <v>2</v>
+      </c>
+      <c r="S107" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T107" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U107" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="V107" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X107" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BL107" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BM107" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BN107" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BO107" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BP107" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>8206674</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>46061.4375</v>
+      </c>
+      <c r="F108" t="n">
+        <v>18</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Wolfsberger AC</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Grazer AK</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="n">
+        <v>2</v>
+      </c>
+      <c r="L108" t="n">
+        <v>2</v>
+      </c>
+      <c r="M108" t="n">
+        <v>2</v>
+      </c>
+      <c r="N108" t="n">
+        <v>4</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>['39', '87']</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>['30', '67']</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R108" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S108" t="n">
+        <v>4</v>
+      </c>
+      <c r="T108" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U108" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="V108" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="W108" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X108" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL108" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BM108" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN108" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO108" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="BP108" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>8206664</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>46061.54166666666</v>
+      </c>
+      <c r="F109" t="n">
+        <v>18</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Sturm Graz</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Ried</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="R109" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S109" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T109" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U109" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="V109" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X109" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL109" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BM109" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BN109" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO109" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP109" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Austria Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Austria Bundesliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP109"/>
+  <dimension ref="A1:BP115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.6</v>
@@ -1355,7 +1355,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.78</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ8" t="n">
         <v>1.6</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR12" t="n">
         <v>1.78</v>
@@ -3317,7 +3317,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ14" t="n">
         <v>1</v>
@@ -3750,10 +3750,10 @@
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3968,10 +3968,10 @@
         <v>3</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AR16" t="n">
         <v>1.06</v>
@@ -4189,7 +4189,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR17" t="n">
         <v>1.75</v>
@@ -4843,7 +4843,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR20" t="n">
         <v>2.7</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.33</v>
@@ -5279,7 +5279,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR22" t="n">
         <v>1.46</v>
@@ -5712,7 +5712,7 @@
         <v>1.5</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.6</v>
@@ -6366,10 +6366,10 @@
         <v>3</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AR27" t="n">
         <v>1.09</v>
@@ -6584,10 +6584,10 @@
         <v>2</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR28" t="n">
         <v>1.51</v>
@@ -6802,10 +6802,10 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR29" t="n">
         <v>1.47</v>
@@ -7020,10 +7020,10 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR30" t="n">
         <v>1.81</v>
@@ -7238,7 +7238,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.67</v>
@@ -7459,7 +7459,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR32" t="n">
         <v>1.35</v>
@@ -7677,7 +7677,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR33" t="n">
         <v>1.37</v>
@@ -8110,7 +8110,7 @@
         <v>2</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.6</v>
@@ -8546,10 +8546,10 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR37" t="n">
         <v>1.06</v>
@@ -8767,7 +8767,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ38" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AR38" t="n">
         <v>2.39</v>
@@ -8982,7 +8982,7 @@
         <v>2</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.33</v>
@@ -9636,10 +9636,10 @@
         <v>3</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR42" t="n">
         <v>1.09</v>
@@ -9854,7 +9854,7 @@
         <v>0.33</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.67</v>
@@ -10072,10 +10072,10 @@
         <v>1.33</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR44" t="n">
         <v>1.12</v>
@@ -10293,7 +10293,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR45" t="n">
         <v>1.4</v>
@@ -10726,10 +10726,10 @@
         <v>1.33</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR47" t="n">
         <v>1.61</v>
@@ -11162,7 +11162,7 @@
         <v>0.25</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.44</v>
@@ -11380,7 +11380,7 @@
         <v>0.67</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ50" t="n">
         <v>1</v>
@@ -11598,10 +11598,10 @@
         <v>1.67</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR51" t="n">
         <v>1.11</v>
@@ -12037,7 +12037,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ53" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AR53" t="n">
         <v>1.51</v>
@@ -12255,7 +12255,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR54" t="n">
         <v>2.2</v>
@@ -12470,7 +12470,7 @@
         <v>1.67</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.6</v>
@@ -12906,7 +12906,7 @@
         <v>1.75</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.78</v>
@@ -13124,10 +13124,10 @@
         <v>3</v>
       </c>
       <c r="AP58" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ58" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AR58" t="n">
         <v>1.09</v>
@@ -13345,7 +13345,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR59" t="n">
         <v>2.05</v>
@@ -13563,7 +13563,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR60" t="n">
         <v>1.72</v>
@@ -14214,7 +14214,7 @@
         <v>0.8</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.44</v>
@@ -14432,10 +14432,10 @@
         <v>2</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR64" t="n">
         <v>1.4</v>
@@ -14653,7 +14653,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR65" t="n">
         <v>1.8</v>
@@ -14868,10 +14868,10 @@
         <v>1.75</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR66" t="n">
         <v>1.69</v>
@@ -15086,10 +15086,10 @@
         <v>0.6</v>
       </c>
       <c r="AP67" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR67" t="n">
         <v>1.27</v>
@@ -15304,7 +15304,7 @@
         <v>2</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.78</v>
@@ -15522,10 +15522,10 @@
         <v>1</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR69" t="n">
         <v>1.2</v>
@@ -16179,7 +16179,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ72" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AR72" t="n">
         <v>1.64</v>
@@ -16394,7 +16394,7 @@
         <v>0.67</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.44</v>
@@ -16830,7 +16830,7 @@
         <v>0.4</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ75" t="n">
         <v>0.67</v>
@@ -17051,7 +17051,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR76" t="n">
         <v>1.58</v>
@@ -17266,10 +17266,10 @@
         <v>2.17</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR77" t="n">
         <v>1.42</v>
@@ -17487,7 +17487,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR78" t="n">
         <v>1.79</v>
@@ -17702,7 +17702,7 @@
         <v>1.67</v>
       </c>
       <c r="AP79" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.78</v>
@@ -17923,7 +17923,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR80" t="n">
         <v>1.44</v>
@@ -18138,7 +18138,7 @@
         <v>1.5</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.33</v>
@@ -18359,7 +18359,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR82" t="n">
         <v>1.82</v>
@@ -19010,7 +19010,7 @@
         <v>0.57</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ85" t="n">
         <v>0.44</v>
@@ -19228,10 +19228,10 @@
         <v>1.83</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR86" t="n">
         <v>1.37</v>
@@ -19446,7 +19446,7 @@
         <v>1</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ87" t="n">
         <v>1</v>
@@ -19667,7 +19667,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR88" t="n">
         <v>1.42</v>
@@ -19882,10 +19882,10 @@
         <v>2.57</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ89" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AR89" t="n">
         <v>1.13</v>
@@ -20103,7 +20103,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR90" t="n">
         <v>1.62</v>
@@ -20754,10 +20754,10 @@
         <v>1.71</v>
       </c>
       <c r="AP93" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR93" t="n">
         <v>1.28</v>
@@ -20972,10 +20972,10 @@
         <v>1.29</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR94" t="n">
         <v>1.12</v>
@@ -21408,10 +21408,10 @@
         <v>0.71</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR96" t="n">
         <v>1.43</v>
@@ -21844,10 +21844,10 @@
         <v>1</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ98" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR98" t="n">
         <v>1.48</v>
@@ -22062,7 +22062,7 @@
         <v>1.25</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ99" t="n">
         <v>1</v>
@@ -22280,10 +22280,10 @@
         <v>1.25</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR100" t="n">
         <v>1.21</v>
@@ -22501,7 +22501,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR101" t="n">
         <v>1.96</v>
@@ -22716,10 +22716,10 @@
         <v>1.75</v>
       </c>
       <c r="AP102" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR102" t="n">
         <v>1.29</v>
@@ -22934,10 +22934,10 @@
         <v>2.63</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ103" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AR103" t="n">
         <v>1.65</v>
@@ -24321,6 +24321,1314 @@
       </c>
       <c r="BP109" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>8206675</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>46067.54166666666</v>
+      </c>
+      <c r="F110" t="n">
+        <v>19</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Wattens</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Sturm Graz</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="R110" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S110" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U110" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V110" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X110" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BL110" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BM110" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BN110" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO110" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BP110" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>8206679</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>46067.54166666666</v>
+      </c>
+      <c r="F111" t="n">
+        <v>19</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Ried</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>LASK Linz</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="n">
+        <v>2</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>['90+13']</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R111" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="S111" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U111" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="V111" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X111" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BL111" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM111" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BN111" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO111" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP111" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>8206729</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>46067.54166666666</v>
+      </c>
+      <c r="F112" t="n">
+        <v>19</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Rheindorf Altach</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R112" t="n">
+        <v>2</v>
+      </c>
+      <c r="S112" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T112" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U112" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V112" t="n">
+        <v>3</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X112" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BL112" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BM112" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN112" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO112" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP112" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>8206677</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>46068.4375</v>
+      </c>
+      <c r="F113" t="n">
+        <v>19</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Grazer AK</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" t="n">
+        <v>2</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="n">
+        <v>2</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="R113" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="S113" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T113" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U113" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V113" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W113" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X113" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BL113" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM113" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BN113" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO113" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BP113" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>8206707</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>46068.4375</v>
+      </c>
+      <c r="F114" t="n">
+        <v>19</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Blau-Weiß Linz</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Wolfsberger AC</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="n">
+        <v>2</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="n">
+        <v>3</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>['44', '80']</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R114" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S114" t="n">
+        <v>3</v>
+      </c>
+      <c r="T114" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U114" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V114" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W114" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X114" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL114" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM114" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BN114" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO114" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="BP114" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>8206669</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>46068.54166666666</v>
+      </c>
+      <c r="F115" t="n">
+        <v>19</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Austria Wien</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Rapid Wien</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>2</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>2</v>
+      </c>
+      <c r="L115" t="n">
+        <v>2</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>2</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>['15', '34']</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R115" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S115" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T115" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U115" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="V115" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="W115" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X115" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL115" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BM115" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BN115" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BO115" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BP115" t="n">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Austria Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Austria Bundesliga_20252026.xlsx
@@ -25574,13 +25574,13 @@
         <v>4</v>
       </c>
       <c r="AX115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY115" t="n">
         <v>8</v>
       </c>
       <c r="AZ115" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA115" t="n">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Austria Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Austria Bundesliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP115"/>
+  <dimension ref="A1:BP118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.44</v>
@@ -2009,7 +2009,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.33</v>
@@ -2663,7 +2663,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.78</v>
@@ -4186,7 +4186,7 @@
         <v>3</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.9</v>
@@ -4625,7 +4625,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR19" t="n">
         <v>1.12</v>
@@ -5494,10 +5494,10 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR23" t="n">
         <v>1.58</v>
@@ -6802,7 +6802,7 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.5</v>
@@ -7023,7 +7023,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR30" t="n">
         <v>1.81</v>
@@ -7241,7 +7241,7 @@
         <v>1</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR31" t="n">
         <v>0.98</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.4</v>
@@ -7892,7 +7892,7 @@
         <v>1</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ34" t="n">
         <v>1</v>
@@ -8331,7 +8331,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR36" t="n">
         <v>2.24</v>
@@ -8546,10 +8546,10 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR37" t="n">
         <v>1.06</v>
@@ -9418,7 +9418,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ41" t="n">
         <v>1</v>
@@ -9857,7 +9857,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR43" t="n">
         <v>1.26</v>
@@ -10944,10 +10944,10 @@
         <v>1.33</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR48" t="n">
         <v>1.56</v>
@@ -11601,7 +11601,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR51" t="n">
         <v>1.11</v>
@@ -12034,7 +12034,7 @@
         <v>3</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ53" t="n">
         <v>2.1</v>
@@ -12909,7 +12909,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR57" t="n">
         <v>1.55</v>
@@ -13560,7 +13560,7 @@
         <v>0</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.4</v>
@@ -13778,7 +13778,7 @@
         <v>1.57</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.6</v>
@@ -13999,7 +13999,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR62" t="n">
         <v>1.64</v>
@@ -14653,7 +14653,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR65" t="n">
         <v>1.8</v>
@@ -15304,10 +15304,10 @@
         <v>2</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR68" t="n">
         <v>1.19</v>
@@ -16176,7 +16176,7 @@
         <v>3</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ72" t="n">
         <v>2.1</v>
@@ -16833,7 +16833,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR75" t="n">
         <v>1.77</v>
@@ -17705,7 +17705,7 @@
         <v>1</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR79" t="n">
         <v>1.24</v>
@@ -17920,10 +17920,10 @@
         <v>2.2</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR80" t="n">
         <v>1.44</v>
@@ -18138,7 +18138,7 @@
         <v>1.5</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.33</v>
@@ -18792,10 +18792,10 @@
         <v>0.33</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ84" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR84" t="n">
         <v>1.56</v>
@@ -19231,7 +19231,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR86" t="n">
         <v>1.37</v>
@@ -19664,7 +19664,7 @@
         <v>1.83</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.78</v>
@@ -19882,7 +19882,7 @@
         <v>2.57</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ89" t="n">
         <v>2.1</v>
@@ -20536,7 +20536,7 @@
         <v>1.29</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.33</v>
@@ -20972,7 +20972,7 @@
         <v>1.29</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.4</v>
@@ -21193,7 +21193,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR95" t="n">
         <v>1.41</v>
@@ -21629,7 +21629,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR97" t="n">
         <v>1.76</v>
@@ -22062,7 +22062,7 @@
         <v>1.25</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ99" t="n">
         <v>1</v>
@@ -22501,7 +22501,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR101" t="n">
         <v>1.96</v>
@@ -23155,7 +23155,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR104" t="n">
         <v>1.95</v>
@@ -23588,7 +23588,7 @@
         <v>1.67</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.6</v>
@@ -23806,7 +23806,7 @@
         <v>0.5</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.44</v>
@@ -24027,7 +24027,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR108" t="n">
         <v>1.35</v>
@@ -24896,7 +24896,7 @@
         <v>0.89</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ112" t="n">
         <v>0.9</v>
@@ -25335,7 +25335,7 @@
         <v>1</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR114" t="n">
         <v>1.27</v>
@@ -25629,6 +25629,660 @@
       </c>
       <c r="BP115" t="n">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>8206681</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>46074.54166666666</v>
+      </c>
+      <c r="F116" t="n">
+        <v>20</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Rapid Wien</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Wolfsberger AC</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>2</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>2</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>['72', '90+2']</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R116" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="S116" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="T116" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U116" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V116" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="W116" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X116" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL116" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM116" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BN116" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO116" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BP116" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>8206676</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>46074.54166666666</v>
+      </c>
+      <c r="F117" t="n">
+        <v>20</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Rheindorf Altach</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Austria Wien</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>2</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
+      <c r="K117" t="n">
+        <v>3</v>
+      </c>
+      <c r="L117" t="n">
+        <v>2</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="n">
+        <v>3</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>['31', '34']</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="R117" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S117" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="T117" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U117" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V117" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W117" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X117" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BL117" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM117" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BN117" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO117" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP117" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>8206678</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>46074.54166666666</v>
+      </c>
+      <c r="F118" t="n">
+        <v>20</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Grazer AK</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="R118" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S118" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U118" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="V118" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="W118" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X118" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL118" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BM118" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BN118" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO118" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BP118" t="n">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Austria Bundesliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Austria Bundesliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP118"/>
+  <dimension ref="A1:BP121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ2" t="n">
         <v>2.1</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.6</v>
@@ -1573,7 +1573,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.4</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.5</v>
@@ -3753,7 +3753,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR18" t="n">
         <v>1.14</v>
@@ -4622,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.6</v>
@@ -5061,7 +5061,7 @@
         <v>1</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR21" t="n">
         <v>0.6899999999999999</v>
@@ -5933,7 +5933,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR25" t="n">
         <v>2.39</v>
@@ -6148,10 +6148,10 @@
         <v>1.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR26" t="n">
         <v>1.28</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.1</v>
@@ -7677,7 +7677,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR33" t="n">
         <v>1.37</v>
@@ -8328,7 +8328,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.6</v>
@@ -8985,7 +8985,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR39" t="n">
         <v>1.47</v>
@@ -9200,10 +9200,10 @@
         <v>0.33</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR40" t="n">
         <v>1.5</v>
@@ -10508,7 +10508,7 @@
         <v>2.25</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.6</v>
@@ -10726,10 +10726,10 @@
         <v>1.33</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR47" t="n">
         <v>1.61</v>
@@ -11165,7 +11165,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR49" t="n">
         <v>1.69</v>
@@ -11816,7 +11816,7 @@
         <v>1.8</v>
       </c>
       <c r="AP52" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.6</v>
@@ -12691,7 +12691,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR56" t="n">
         <v>1.39</v>
@@ -12906,7 +12906,7 @@
         <v>1.75</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.6</v>
@@ -13996,7 +13996,7 @@
         <v>0.5</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ62" t="n">
         <v>0.6</v>
@@ -14214,10 +14214,10 @@
         <v>0.8</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR63" t="n">
         <v>1.46</v>
@@ -14650,7 +14650,7 @@
         <v>2</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.1</v>
@@ -14871,7 +14871,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR66" t="n">
         <v>1.69</v>
@@ -15743,7 +15743,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR70" t="n">
         <v>1.9</v>
@@ -16397,7 +16397,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR73" t="n">
         <v>1.4</v>
@@ -17048,7 +17048,7 @@
         <v>0.83</v>
       </c>
       <c r="AP76" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ76" t="n">
         <v>0.9</v>
@@ -17266,7 +17266,7 @@
         <v>2.17</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.5</v>
@@ -17484,10 +17484,10 @@
         <v>2</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR78" t="n">
         <v>1.79</v>
@@ -18141,7 +18141,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR81" t="n">
         <v>1.13</v>
@@ -18356,7 +18356,7 @@
         <v>1</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.4</v>
@@ -19013,7 +19013,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR85" t="n">
         <v>1.22</v>
@@ -19667,7 +19667,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR88" t="n">
         <v>1.42</v>
@@ -20100,7 +20100,7 @@
         <v>2</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.5</v>
@@ -20318,7 +20318,7 @@
         <v>1</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ91" t="n">
         <v>1</v>
@@ -20539,7 +20539,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR92" t="n">
         <v>1.5</v>
@@ -20757,7 +20757,7 @@
         <v>1</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR93" t="n">
         <v>1.28</v>
@@ -21408,7 +21408,7 @@
         <v>0.71</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ96" t="n">
         <v>0.9</v>
@@ -21626,7 +21626,7 @@
         <v>0.71</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ97" t="n">
         <v>0.6</v>
@@ -23370,7 +23370,7 @@
         <v>1.11</v>
       </c>
       <c r="AP105" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ105" t="n">
         <v>1</v>
@@ -23809,7 +23809,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR107" t="n">
         <v>1.43</v>
@@ -24242,10 +24242,10 @@
         <v>1.5</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR109" t="n">
         <v>1.77</v>
@@ -24460,7 +24460,7 @@
         <v>2.33</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ110" t="n">
         <v>2.1</v>
@@ -25117,7 +25117,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR113" t="n">
         <v>1.21</v>
@@ -26222,19 +26222,19 @@
         <v>5</v>
       </c>
       <c r="AV118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW118" t="n">
         <v>6</v>
       </c>
       <c r="AX118" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY118" t="n">
         <v>11</v>
       </c>
       <c r="AZ118" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA118" t="n">
         <v>5</v>
@@ -26283,6 +26283,660 @@
       </c>
       <c r="BP118" t="n">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>8206708</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>46075.4375</v>
+      </c>
+      <c r="F119" t="n">
+        <v>20</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Wattens</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Ried</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="n">
+        <v>2</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="R119" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="S119" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="T119" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U119" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="V119" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="W119" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X119" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BL119" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM119" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BN119" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO119" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BP119" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>8206682</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>46075.4375</v>
+      </c>
+      <c r="F120" t="n">
+        <v>20</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Sturm Graz</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Blau-Weiß Linz</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R120" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S120" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T120" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U120" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="V120" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W120" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X120" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT120" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX120" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA120" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BL120" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM120" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN120" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO120" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BP120" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>8206680</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>46075.54166666666</v>
+      </c>
+      <c r="F121" t="n">
+        <v>20</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>LASK Linz</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>3</v>
+      </c>
+      <c r="K121" t="n">
+        <v>4</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="n">
+        <v>5</v>
+      </c>
+      <c r="N121" t="n">
+        <v>6</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>['6', '10', '37', '64', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>3</v>
+      </c>
+      <c r="R121" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S121" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T121" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U121" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="V121" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W121" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X121" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT121" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW121" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX121" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ121" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BL121" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM121" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BN121" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO121" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP121" t="n">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>
